--- a/spliced/falling/2023-03-25_18-02-51/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-51/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-1.352860689163208</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.525787353515625</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.078789949417114</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.021092414855957</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-02-51/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-51/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,310 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.9185628890991212</v>
+        <v>-0.7498788833618164</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8159165382385254</v>
+        <v>0.7729501724243164</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.254562854766846</v>
+        <v>-1.214103698730469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.8128528594970703</v>
+        <v>-0.8813939094543457</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7384524345397949</v>
+        <v>0.8021388053894043</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.323878526687622</v>
+        <v>-1.258926272392273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.5396947860717773</v>
+        <v>-0.6222906112670898</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4983515739440918</v>
+        <v>0.7483844757080078</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.386690616607666</v>
+        <v>-1.280380129814148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.1267647743225097</v>
+        <v>-0.7319130897521973</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3085379600524902</v>
+        <v>0.7634215354919434</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.642498016357422</v>
+        <v>-1.176308631896973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2359266281127929</v>
+        <v>-0.568336009979248</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2183656692504882</v>
+        <v>0.7112784385681152</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.997431516647339</v>
+        <v>-1.411303043365478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.7616920471191406</v>
+        <v>-0.4251332283020019</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.078659534454346</v>
+        <v>0.7228684425354004</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.043187141418457</v>
+        <v>-1.317938923835754</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.656810522079468</v>
+        <v>-0.824821949005127</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.278046607971191</v>
+        <v>0.7479877471923828</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.701850414276123</v>
+        <v>-1.330062508583069</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.357179164886475</v>
+        <v>-0.9185628890991212</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.795724391937256</v>
+        <v>0.8159165382385254</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.692870140075684</v>
+        <v>-1.254562854766846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.303323268890381</v>
+        <v>-0.8128528594970703</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.950790405273437</v>
+        <v>0.7384524345397949</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.430110692977905</v>
+        <v>-1.323878526687622</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.76627254486084</v>
+        <v>-0.5396947860717773</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.148142337799072</v>
+        <v>0.4983515739440918</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.799470901489258</v>
+        <v>-2.386690616607666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-5.706301212310791</v>
+        <v>-0.1267647743225097</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.392673492431641</v>
+        <v>0.3085379600524902</v>
       </c>
       <c r="C12" t="n">
-        <v>3.553245782852173</v>
+        <v>-2.642498016357422</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.05734920501709</v>
+        <v>-0.2359266281127929</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.071773529052734</v>
+        <v>-0.2183656692504882</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5925030708312988</v>
+        <v>-3.997431516647339</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.7244548797607422</v>
+        <v>-0.7616920471191406</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7260329723358154</v>
+        <v>-1.078659534454346</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.8456218242645264</v>
+        <v>-5.043187141418457</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.8577280044555664</v>
+        <v>-2.656810522079468</v>
       </c>
       <c r="B15" t="n">
-        <v>1.746235489845276</v>
+        <v>-2.278046607971191</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.253829836845398</v>
+        <v>-4.701850414276123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.9032430648803712</v>
+        <v>-4.357179164886475</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7269128561019897</v>
+        <v>-1.795724391937256</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.814414024353028</v>
+        <v>-4.692870140075684</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3531332015991211</v>
+        <v>-2.303323268890381</v>
       </c>
       <c r="B17" t="n">
-        <v>3.250727415084839</v>
+        <v>-1.950790405273437</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5509147644042969</v>
+        <v>-3.430110692977905</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1614398956298828</v>
+        <v>-4.76627254486084</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2837758064270019</v>
+        <v>-2.148142337799072</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.02338171005249</v>
+        <v>-2.799470901489258</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.5078344345092773</v>
+        <v>-5.706301212310791</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6439783573150635</v>
+        <v>-2.392673492431641</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.895825386047364</v>
+        <v>3.553245782852173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.4796314239501953</v>
+        <v>3.05734920501709</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7996485829353333</v>
+        <v>-6.071773529052734</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.4695221781730652</v>
+        <v>0.5925030708312988</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.7244548797607422</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7260329723358154</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.8456218242645264</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.8577280044555664</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.746235489845276</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.253829836845398</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.9032430648803712</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7269128561019897</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.814414024353028</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.3531332015991211</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.250727415084839</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.5509147644042969</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.1614398956298828</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2837758064270019</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.02338171005249</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.5078344345092773</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6439783573150635</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.895825386047364</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.4796314239501953</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7996485829353333</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.4695221781730652</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>-0.5036382675170898</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>1.3280930519104</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>-1.352860689163208</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.525787353515625</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.078789949417114</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.021092414855957</v>
       </c>
     </row>
   </sheetData>
